--- a/data/trans_bre/CONS_ANTIDE-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,91</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>22,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>174,24%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>388,88%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>165,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>392,51%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,61</t>
+          <t>-0,43; 5,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 31,24</t>
+          <t>2,27; 10,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,82</t>
+          <t>2,96; 8,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,89</t>
+          <t>13,18; 32,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>68,53; 346,29</t>
+          <t>-6,68; 175,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,3; 1006,99</t>
+          <t>19,96; 229,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,51; 170,54</t>
+          <t>60,34; 379,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,45; 184,39</t>
+          <t>60,61; 1058,66</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,57</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>173,89%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,12%</t>
+          <t>163,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>118,1%</t>
+          <t>138,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>79,94%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,42</t>
+          <t>0,68; 2,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,62</t>
+          <t>1,47; 6,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,93</t>
+          <t>1,95; 4,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,46</t>
+          <t>2,68; 8,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,07; 297,08</t>
+          <t>27,78; 172,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,09; 152,02</t>
+          <t>52,92; 378,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,22; 199,66</t>
+          <t>61,35; 263,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,75; 170,83</t>
+          <t>30,19; 155,33</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,54</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>257,67%</t>
+          <t>229,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>31,14%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>193,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>81,41%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>75,78%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>292,42%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,75</t>
+          <t>0,66; 2,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,25</t>
+          <t>-1,25; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,42</t>
+          <t>0,62; 3,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,03</t>
+          <t>0,5; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,55; 1046,39</t>
+          <t>37,45; 825,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 195,9</t>
+          <t>-39,58; 216,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 238,19</t>
+          <t>7,09; 703,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,0; 788,19</t>
+          <t>3,77; 203,4</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>184,39%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>123,01%</t>
+          <t>139,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>117,57%</t>
+          <t>153,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>109,58%</t>
+          <t>123,15%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,86</t>
+          <t>1,15; 2,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,77</t>
+          <t>2,19; 6,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,09</t>
+          <t>2,43; 4,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,68</t>
+          <t>4,73; 9,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>118,9; 277,94</t>
+          <t>47,07; 159,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,1; 188,52</t>
+          <t>66,51; 273,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,82; 166,27</t>
+          <t>89,97; 250,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,42; 166,7</t>
+          <t>65,1; 188,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANTIDE-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,84%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,87</t>
+          <t>0,55; 5,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,77</t>
+          <t>2,1; 10,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,18; 32,33</t>
+          <t>13,29; 31,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 175,73</t>
+          <t>9,64; 207,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 229,33</t>
+          <t>19,21; 208,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,61; 1058,66</t>
+          <t>101,06; 1179,3</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>62,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,67</t>
+          <t>0,39; 2,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,55</t>
+          <t>1,29; 6,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,87</t>
+          <t>2,43; 8,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,78; 172,84</t>
+          <t>13,61; 134,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,92; 378,96</t>
+          <t>45,68; 376,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,19; 155,33</t>
+          <t>25,93; 152,37</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>229,53%</t>
+          <t>202,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,96</t>
+          <t>0,53; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,94</t>
+          <t>-1,46; 2,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,25</t>
+          <t>0,74; 6,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,45; 825,05</t>
+          <t>28,96; 634,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 216,99</t>
+          <t>-44,48; 185,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 203,4</t>
+          <t>8,58; 195,05</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,72</t>
+          <t>1,02; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,04</t>
+          <t>2,23; 6,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,68</t>
+          <t>4,93; 9,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,07; 159,28</t>
+          <t>40,5; 146,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,51; 273,31</t>
+          <t>67,21; 261,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,1; 188,24</t>
+          <t>68,66; 187,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANTIDE-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22,34</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,48</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>22,34</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>103,74%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>392,51%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>165,95%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>85,11%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>91,41%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>165,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>392,51%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,9; 10,87</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 31,62</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 8,61</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,55; 5,9</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 10,24</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 8,61</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>13,29; 31,62</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>28,76; 225,86</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>101,06; 1179,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>60,34; 379,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>9,64; 207,17</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>19,21; 208,62</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>60,34; 379,3</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>101,06; 1179,3</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,57</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,33</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>147,65%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>138,52%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>62,16%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>163,16%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>138,52%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>79,94%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,06; 6,5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 8,6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 4,93</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,39; 2,29</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 6,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 4,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 8,6</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>71,69; 260,9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 152,37</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61,35; 263,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>13,61; 134,14</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>45,68; 376,0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>61,35; 263,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>25,93; 152,37</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,59</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>50,25%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>81,41%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>193,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>202,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,14%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>193,04%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>81,41%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,14; 3,21</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 6,31</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 3,55</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,53; 2,65</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 2,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 3,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 6,31</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-35,74; 219,05</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 195,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,09; 703,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>28,96; 634,71</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-44,48; 185,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,09; 703,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>8,58; 195,05</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,75</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>135,9%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>123,15%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>153,9%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>86,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>139,26%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>153,9%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>123,15%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,46; 5,99</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 9,68</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 4,43</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>1,02; 2,56</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 6,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 4,43</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 9,68</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>82,23; 208,05</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68,66; 187,34</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>89,97; 250,21</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>40,5; 146,22</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>67,21; 261,26</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>89,97; 250,21</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>68,66; 187,34</t>
         </is>
       </c>
     </row>
